--- a/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,73</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 24,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,9; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,21; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 47,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 12,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 48,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>219,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>219,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>314,77%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; 2,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,91; -1,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,92; 10,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,44; 0,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,15; 2,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,2; 10,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; -1,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; -3,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 5,79</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,21%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,25; 39,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,23; -4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,1; 149,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 77,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,17; 164,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,79; -2,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,67; -24,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,46; 53,46</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,17; 14,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 1,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 16,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 5,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,34; -1,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 8,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 6,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; -1,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 10,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,68%</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,79; 339,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,36; 72,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 386,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 223,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,23; 226,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,66; 117,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,71; -10,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,87; 226,66</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; -3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,59; 2,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,23; 8,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,14; -3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,78; -0,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,81; 3,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,35; -4,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; -0,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 3,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,09%</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 91,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,24; 194,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,08; 125,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,24; 23,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,45; 81,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,69; 11,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,62; -2,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; 14,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,23; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,73; 7,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,97; 13,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,86; 5,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,9; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 10,94</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,34%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,43; 536,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,08; 309,26</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 1,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,23; -2,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 6,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; -2,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; -3,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 3,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -1,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; -4,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 3,07</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,64%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,98; 30,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,96; -27,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; 91,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,37; -20,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,99; -43,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 46,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,33; -17,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,41; -46,05</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,05; 36,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>9,83</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 47,04</t>
+          <t>-9,88; 49,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 48,06</t>
+          <t>-4,18; 49,82</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>219,58%</t>
+          <t>254,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>314,77%</t>
+          <t>354,6%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,59</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 10,72</t>
+          <t>-16,25; 9,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 10,54</t>
+          <t>-14,34; 10,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 5,79</t>
+          <t>-12,68; 5,35</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,12%</t>
+          <t>-49,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>-21,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-35,21%</t>
+          <t>-37,29%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-97,1; 149,74</t>
+          <t>-97,0; 129,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 164,87</t>
+          <t>-77,33; 161,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,46; 53,46</t>
+          <t>-73,96; 49,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,68</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 16,24</t>
+          <t>-1,02; 16,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 8,14</t>
+          <t>-9,14; 8,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 10,92</t>
+          <t>-0,62; 11,21</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>109,01%</t>
+          <t>113,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,68%</t>
+          <t>62,99%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 386,4</t>
+          <t>-13,84; 396,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 226,02</t>
+          <t>-63,46; 231,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 226,66</t>
+          <t>-13,06; 237,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-2,07</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 8,53</t>
+          <t>-7,29; 8,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 3,65</t>
+          <t>-20,4; 2,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 3,73</t>
+          <t>-8,55; 3,35</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-46,33%</t>
+          <t>-53,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>-24,03%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,24; 194,22</t>
+          <t>-67,68; 193,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,08; 125,77</t>
+          <t>-86,56; 89,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 81,58</t>
+          <t>-65,95; 70,63</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,98</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 14,85</t>
+          <t>-6,04; 15,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 13,14</t>
+          <t>-19,12; 12,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 10,94</t>
+          <t>-4,68; 11,15</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 536,24</t>
+          <t>-45,42; 557,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 309,26</t>
+          <t>-38,87; 317,59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-40,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-62,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-73,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-77,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-54,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-68,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-3,72</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-7,89</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-8,27</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-5,3</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-6,6</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 1,67</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; -2,09</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 7,0</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; -2,73</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; -3,94</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 3,21</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; -1,61</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; -4,11</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 2,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-40,41%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-62,15%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-73,5%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-77,02%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-24,15%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-54,64%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-68,06%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-2,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-74,98; 30,74</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-81,96; -27,42</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-26,42; 91,92</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 96,96</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-93,37; -20,83</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-92,99; -43,82</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-51,88; 46,71</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-55,74; 43,78</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-76,33; -17,21</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-81,41; -46,05</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; 36,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-35,53; 35,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Edad-trans_camb.xlsx
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 24,06</t>
+          <t>-3,69; 24,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 0,0</t>
+          <t>-24,88; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 0,0</t>
+          <t>-34,91; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 49,58</t>
+          <t>-5,11; 57,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,0</t>
+          <t>-10,33; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 12,0</t>
+          <t>-4,24; 13,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 49,82</t>
+          <t>-4,2; 43,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 2,98</t>
+          <t>-17,18; 2,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,91; -1,75</t>
+          <t>-19,27; -1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 9,73</t>
+          <t>-16,85; 8,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 0,16</t>
+          <t>-20,36; 0,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 2,72</t>
+          <t>-18,44; 1,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 10,62</t>
+          <t>-14,46; 12,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -1,76</t>
+          <t>-16,17; -2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -3,37</t>
+          <t>-17,01; -4,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 5,35</t>
+          <t>-13,58; 5,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,25; 39,33</t>
+          <t>-89,39; 42,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-91,23; -4,35</t>
+          <t>-92,88; 6,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-97,0; 129,47</t>
+          <t>-97,59; 88,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 42,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 77,77</t>
+          <t>-100,0; 74,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,33; 161,03</t>
+          <t>-75,73; 154,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-90,79; -2,87</t>
+          <t>-91,28; -14,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,67; -24,55</t>
+          <t>-88,46; -28,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 49,86</t>
+          <t>-75,56; 46,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 14,43</t>
+          <t>-5,04; 14,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 1,92</t>
+          <t>-8,61; 1,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 16,88</t>
+          <t>-0,55; 17,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 5,56</t>
+          <t>-12,12; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,34; -1,82</t>
+          <t>-16,04; -1,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 8,38</t>
+          <t>-8,27; 9,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,17</t>
+          <t>-6,21; 7,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,26</t>
+          <t>-9,81; -0,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 11,21</t>
+          <t>-1,42; 10,39</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 339,77</t>
+          <t>-65,32; 350,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,36; 72,51</t>
+          <t>-89,18; 77,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 396,64</t>
+          <t>-13,26; 423,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 223,92</t>
+          <t>-100,0; 242,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 231,67</t>
+          <t>-65,08; 299,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 117,87</t>
+          <t>-69,06; 153,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,71; -10,77</t>
+          <t>-90,06; -2,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 237,71</t>
+          <t>-15,83; 196,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -3,43</t>
+          <t>-14,29; -3,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 2,31</t>
+          <t>-11,56; 2,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 8,52</t>
+          <t>-7,18; 7,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,14; -3,14</t>
+          <t>-27,89; -3,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,78; -0,87</t>
+          <t>-23,53; -0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 2,58</t>
+          <t>-19,22; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -4,95</t>
+          <t>-14,8; -4,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -0,3</t>
+          <t>-11,96; -0,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 3,35</t>
+          <t>-8,61; 3,39</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,2</t>
+          <t>-91,9; 81,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,68; 193,66</t>
+          <t>-69,97; 203,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,56; 89,56</t>
+          <t>-86,4; 60,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-91,24; 23,72</t>
+          <t>-90,72; 7,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 70,63</t>
+          <t>-67,71; 60,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 11,45</t>
+          <t>-12,44; 11,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -2,06</t>
+          <t>-18,89; -2,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 15,28</t>
+          <t>-5,34; 16,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,23; 0,0</t>
+          <t>-35,82; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 7,01</t>
+          <t>-28,6; 7,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 12,99</t>
+          <t>-22,08; 11,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 5,26</t>
+          <t>-12,86; 5,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -0,17</t>
+          <t>-14,9; -0,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 11,15</t>
+          <t>-4,79; 11,45</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 557,7</t>
+          <t>-46,86; 608,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 317,59</t>
+          <t>-42,2; 357,33</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,67</t>
+          <t>-7,97; 1,05</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -2,09</t>
+          <t>-9,31; -2,52</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,0</t>
+          <t>-2,38; 7,02</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,73</t>
+          <t>-12,91; -2,21</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,94</t>
+          <t>-13,12; -3,75</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,21</t>
+          <t>-7,51; 2,75</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -1,61</t>
+          <t>-8,94; -1,63</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -4,11</t>
+          <t>-9,37; -4,08</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,94</t>
+          <t>-3,78; 3,34</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 30,74</t>
+          <t>-74,55; 20,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-81,96; -27,42</t>
+          <t>-80,42; -29,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 96,96</t>
+          <t>-22,32; 106,95</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -20,83</t>
+          <t>-92,52; -9,92</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -43,82</t>
+          <t>-93,29; -43,66</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 43,78</t>
+          <t>-54,82; 35,67</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-76,33; -17,21</t>
+          <t>-78,78; -15,37</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-81,41; -46,05</t>
+          <t>-81,76; -47,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 35,68</t>
+          <t>-33,17; 39,87</t>
         </is>
       </c>
     </row>
